--- a/__encodeapk/2个客户.xlsx
+++ b/__encodeapk/2个客户.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jj/Documents/个人/Project/code/Finance-master-local/__encodeapk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69872CE-15B4-0347-A4CE-6F6744BAB106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25320AE-0B5C-3242-83DF-26116C60FFFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="6480" windowWidth="22840" windowHeight="21160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="8" r:id="rId1"/>
@@ -18,6 +18,14 @@
     <sheet name="Sheet2" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -255,8 +263,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -364,19 +372,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -391,10 +399,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -415,13 +423,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -704,7 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2:M14"/>
     </sheetView>
   </sheetViews>
@@ -858,7 +866,7 @@
         <v>44159</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
+        <f t="shared" ref="L3:L6" si="0">TEXT(K3,"yyyy-mm-dd")</f>
         <v>2020-11-24</v>
       </c>
       <c r="M3" s="24" t="s">
@@ -2065,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -2539,7 +2547,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="6">
-        <v>176895.85</v>
+        <v>185895.85</v>
       </c>
       <c r="D17" s="7" t="str">
         <f t="shared" si="2"/>
